--- a/xo-starter-excel/src/test/resources/META-INF/xo/export/basic_export.xlsx
+++ b/xo-starter-excel/src/test/resources/META-INF/xo/export/basic_export.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="45" windowWidth="15480" windowHeight="11640"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="51">
   <si>
     <t>${department.chief.name}</t>
   </si>
@@ -59,14 +59,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>上级</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>上级工资</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>总计：</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -99,14 +91,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>${department.employees.superior.name}</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>${department.employees.superior.payment}</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>职员信息：</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -131,10 +115,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUM(H8)]</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>$[F4+F9]</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -164,12 +144,6 @@
     <t>${department.employees.bonus}</t>
   </si>
   <si>
-    <t>${department.employees.superior.name}</t>
-  </si>
-  <si>
-    <t>${department.employees.superior.payment}</t>
-  </si>
-  <si>
     <t>${department_employees_JxLsC_.name}</t>
   </si>
   <si>
@@ -186,12 +160,6 @@
   </si>
   <si>
     <t>$[D8*(1+E8)]//department_employees_JxLsC_</t>
-  </si>
-  <si>
-    <t>${department_employees_JxLsC_.superior.name}</t>
-  </si>
-  <si>
-    <t>${department_employees_JxLsC_.superior.payment}</t>
   </si>
   <si>
     <t>职员0</t>
@@ -227,12 +195,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -277,13 +245,6 @@
       <b/>
       <sz val="10"/>
       <color theme="0"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -360,27 +321,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -395,19 +341,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -452,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -461,13 +394,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -476,75 +409,60 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -553,11 +471,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -631,6 +554,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -665,6 +589,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -840,14 +765,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" customWidth="true" style="1" width="19.5703125" collapsed="false"/>
     <col min="2" max="2" customWidth="true" style="1" width="25.7109375" collapsed="false"/>
@@ -861,32 +786,32 @@
     <col min="10" max="16384" style="1" width="9.140625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
+        <v>14</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30"/>
       <c r="I1" s="3" t="s">
         <f>0</f>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1">
-      <c r="A2" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35"/>
-    </row>
-    <row r="3" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+    </row>
+    <row r="3" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
@@ -907,27 +832,27 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B4" s="13" t="n">
         <v>30.0</v>
       </c>
-      <c r="C4" s="32" t="n">
+      <c r="C4" s="27" t="n">
         <v>30317.0</v>
       </c>
-      <c r="D4" s="26" t="n">
+      <c r="D4" s="23" t="n">
         <v>20000.0</v>
       </c>
-      <c r="E4" s="26" t="n">
+      <c r="E4" s="23" t="n">
         <v>0.25</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="23" t="s">
         <f>D4*(1+E4)</f>
       </c>
     </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -936,17 +861,17 @@
       <c r="F5" s="14"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1">
-      <c r="A6" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
-    </row>
-    <row r="7" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30"/>
+    </row>
+    <row r="7" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>5</v>
       </c>
@@ -965,292 +890,246 @@
       <c r="F7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="G7"/>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:9" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B8" s="13" t="n">
         <v>30.0</v>
       </c>
-      <c r="C8" s="32" t="n">
+      <c r="C8" s="27" t="n">
         <v>30317.0</v>
       </c>
-      <c r="D8" s="26" t="n">
+      <c r="D8" s="23" t="n">
         <v>20000.0</v>
       </c>
-      <c r="E8" s="26" t="n">
+      <c r="E8" s="23" t="n">
         <v>0.25</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="23" t="s">
         <f>D8*(1+E8)</f>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="31" t="n">
-        <v>20000.0</v>
-      </c>
+      <c r="G8"/>
+      <c r="H8"/>
     </row>
     <row r="9" ht="20.1" customHeight="true">
       <c r="A9" s="13" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B9" s="13" t="n">
         <v>31.0</v>
       </c>
-      <c r="C9" s="32" t="n">
+      <c r="C9" s="27" t="n">
         <v>29952.0</v>
       </c>
-      <c r="D9" s="26" t="n">
+      <c r="D9" s="23" t="n">
         <v>21000.0</v>
       </c>
-      <c r="E9" s="26" t="n">
+      <c r="E9" s="23" t="n">
         <v>0.24</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="23" t="s">
         <f>D9*(1+E9)</f>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="31" t="n">
-        <v>20000.0</v>
-      </c>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
     </row>
     <row r="10" ht="20.1" customHeight="true">
       <c r="A10" s="13" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B10" s="13" t="n">
         <v>32.0</v>
       </c>
-      <c r="C10" s="32" t="n">
+      <c r="C10" s="27" t="n">
         <v>29587.0</v>
       </c>
-      <c r="D10" s="26" t="n">
+      <c r="D10" s="23" t="n">
         <v>22000.0</v>
       </c>
-      <c r="E10" s="26" t="n">
+      <c r="E10" s="23" t="n">
         <v>0.23</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="23" t="s">
         <f>D10*(1+E10)</f>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="31" t="n">
-        <v>20000.0</v>
-      </c>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
     </row>
     <row r="11" ht="20.1" customHeight="true">
       <c r="A11" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B11" s="13" t="n">
         <v>33.0</v>
       </c>
-      <c r="C11" s="32" t="n">
+      <c r="C11" s="27" t="n">
         <v>29221.0</v>
       </c>
-      <c r="D11" s="26" t="n">
+      <c r="D11" s="23" t="n">
         <v>23000.0</v>
       </c>
-      <c r="E11" s="26" t="n">
+      <c r="E11" s="23" t="n">
         <v>0.22</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="23" t="s">
         <f>D11*(1+E11)</f>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="31" t="n">
-        <v>20000.0</v>
-      </c>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
     </row>
     <row r="12" ht="20.1" customHeight="true">
       <c r="A12" s="13" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B12" s="13" t="n">
         <v>34.0</v>
       </c>
-      <c r="C12" s="32" t="n">
+      <c r="C12" s="27" t="n">
         <v>28856.0</v>
       </c>
-      <c r="D12" s="26" t="n">
+      <c r="D12" s="23" t="n">
         <v>24000.0</v>
       </c>
-      <c r="E12" s="26" t="n">
+      <c r="E12" s="23" t="n">
         <v>0.21</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="23" t="s">
         <f>D12*(1+E12)</f>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="31" t="n">
-        <v>20000.0</v>
-      </c>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
     </row>
     <row r="13" ht="20.1" customHeight="true">
       <c r="A13" s="13" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B13" s="13" t="n">
         <v>35.0</v>
       </c>
-      <c r="C13" s="32" t="n">
+      <c r="C13" s="27" t="n">
         <v>28491.0</v>
       </c>
-      <c r="D13" s="26" t="n">
+      <c r="D13" s="23" t="n">
         <v>25000.0</v>
       </c>
-      <c r="E13" s="26" t="n">
+      <c r="E13" s="23" t="n">
         <v>0.2</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="23" t="s">
         <f>D13*(1+E13)</f>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="31" t="n">
-        <v>20000.0</v>
-      </c>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
     </row>
     <row r="14" ht="20.1" customHeight="true">
       <c r="A14" s="13" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B14" s="13" t="n">
         <v>36.0</v>
       </c>
-      <c r="C14" s="32" t="n">
+      <c r="C14" s="27" t="n">
         <v>28126.0</v>
       </c>
-      <c r="D14" s="26" t="n">
+      <c r="D14" s="23" t="n">
         <v>26000.0</v>
       </c>
-      <c r="E14" s="26" t="n">
+      <c r="E14" s="23" t="n">
         <v>0.19</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="23" t="s">
         <f>D14*(1+E14)</f>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="31" t="n">
-        <v>20000.0</v>
-      </c>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
     </row>
     <row r="15" ht="20.1" customHeight="true">
       <c r="A15" s="13" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B15" s="13" t="n">
         <v>37.0</v>
       </c>
-      <c r="C15" s="32" t="n">
+      <c r="C15" s="27" t="n">
         <v>27760.0</v>
       </c>
-      <c r="D15" s="26" t="n">
+      <c r="D15" s="23" t="n">
         <v>27000.0</v>
       </c>
-      <c r="E15" s="26" t="n">
+      <c r="E15" s="23" t="n">
         <v>0.18</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="23" t="s">
         <f>D15*(1+E15)</f>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="31" t="n">
-        <v>20000.0</v>
-      </c>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
     </row>
     <row r="16" ht="20.1" customHeight="true">
       <c r="A16" s="13" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B16" s="13" t="n">
         <v>38.0</v>
       </c>
-      <c r="C16" s="32" t="n">
+      <c r="C16" s="27" t="n">
         <v>27395.0</v>
       </c>
-      <c r="D16" s="26" t="n">
+      <c r="D16" s="23" t="n">
         <v>28000.0</v>
       </c>
-      <c r="E16" s="26" t="n">
+      <c r="E16" s="23" t="n">
         <v>0.16999999999999998</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="23" t="s">
         <f>D16*(1+E16)</f>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="31" t="n">
-        <v>20000.0</v>
-      </c>
+      <c r="G16" s="0"/>
+      <c r="H16" s="0"/>
     </row>
     <row r="17" ht="20.1" customHeight="true">
       <c r="A17" s="13" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B17" s="13" t="n">
         <v>39.0</v>
       </c>
-      <c r="C17" s="32" t="n">
+      <c r="C17" s="27" t="n">
         <v>27030.0</v>
       </c>
-      <c r="D17" s="26" t="n">
+      <c r="D17" s="23" t="n">
         <v>29000.0</v>
       </c>
-      <c r="E17" s="26" t="n">
+      <c r="E17" s="23" t="n">
         <v>0.16</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="23" t="s">
         <f>D17*(1+E17)</f>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="31" t="n">
-        <v>20000.0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="9" customFormat="1" ht="30.0" customHeight="true">
+      <c r="G17" s="0"/>
+      <c r="H17" s="0"/>
+    </row>
+    <row r="18" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2" ht="30.0" customHeight="true">
       <c r="A18" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="24" t="s">
         <f>SUM(D8:D17)</f>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="28" t="s">
+      <c r="E18" s="20"/>
+      <c r="F18" s="25" t="s">
         <f>SUM(F8:F17)</f>
       </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="29" t="s">
-        <f>SUM(H8:H17)</f>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="20.1" customHeight="true">
+      <c r="G18"/>
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35" ht="20.1" customHeight="true">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -1258,15 +1137,15 @@
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:9" s="9" customFormat="1" ht="30.0" customHeight="true">
-      <c r="A20" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="30" t="s">
+    <row r="20" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2" ht="30.0" customHeight="true">
+      <c r="A20" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="26" t="s">
         <f>F4+F18</f>
       </c>
       <c r="G20" s="10"/>

--- a/xo-starter-excel/src/test/resources/META-INF/xo/export/basic_export.xlsx
+++ b/xo-starter-excel/src/test/resources/META-INF/xo/export/basic_export.xlsx
@@ -4,17 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="15480" windowHeight="11640"/>
+    <workbookView windowHeight="11640" windowWidth="15480" xWindow="480" yWindow="45"/>
   </bookViews>
   <sheets>
-    <sheet name="部门0" sheetId="1" r:id="rId1"/>
+    <sheet name="部门名称" r:id="rId1" sheetId="1"/>
   </sheets>
-  <calcPr calcId="124519" calcOnSave="0"/>
+  <calcPr calcId="145621" calcOnSave="0"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>hesong</author>
+  </authors>
+  <commentList/>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="41">
   <si>
     <t>${department.chief.name}</t>
   </si>
@@ -71,26 +80,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>${department.employees.name}</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>${department.employees.age}</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>${department.employees.birthDate}</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>${department.employees.payment}</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>${department.employees.bonus}</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>职员信息：</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -103,10 +92,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>$[D8*(1+E8)]//department.employees</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>$[SUM(D8)]</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -119,47 +104,41 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>${department.name}${workbook.setSheetName(0, department.name)}</t>
-    <phoneticPr fontId="0" type="noConversion"/>
+    <t>${employee.name}</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>${employee.age}</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>${employee.birthDate}</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>${employee.payment}</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>${employee.bonus}</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[D8*(1+E8)]</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>${department.name}</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>部门主管0</t>
   </si>
   <si>
     <t>部门0</t>
-  </si>
-  <si>
-    <t>部门主管0</t>
-  </si>
-  <si>
-    <t>${department.employees.name}</t>
-  </si>
-  <si>
-    <t>${department.employees.age}</t>
-  </si>
-  <si>
-    <t>${department.employees.birthDate}</t>
-  </si>
-  <si>
-    <t>${department.employees.payment}</t>
-  </si>
-  <si>
-    <t>${department.employees.bonus}</t>
-  </si>
-  <si>
-    <t>${department_employees_JxLsC_.name}</t>
-  </si>
-  <si>
-    <t>${department_employees_JxLsC_.age}</t>
-  </si>
-  <si>
-    <t>${department_employees_JxLsC_.birthDate}</t>
-  </si>
-  <si>
-    <t>${department_employees_JxLsC_.payment}</t>
-  </si>
-  <si>
-    <t>${department_employees_JxLsC_.bonus}</t>
-  </si>
-  <si>
-    <t>$[D8*(1+E8)]//department_employees_JxLsC_</t>
   </si>
   <si>
     <t>职员0</t>
@@ -200,7 +179,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -268,6 +247,21 @@
       <sz val="9"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -383,94 +377,94 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="9" numFmtId="176" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="7" fontId="6" numFmtId="176" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="7" fontId="6" numFmtId="176" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="4" numFmtId="176" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="9" numFmtId="177" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="5" fontId="7" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="7" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -484,10 +478,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -645,7 +639,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -654,13 +648,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -670,7 +664,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -679,7 +673,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -688,7 +682,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -698,12 +692,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -734,7 +728,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -753,7 +747,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -765,11 +759,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -786,24 +780,24 @@
     <col min="10" max="16384" style="1" width="9.140625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="true" ht="39.95" r="1" s="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
       <c r="F1" s="30"/>
       <c r="I1" s="3" t="s">
-        <f>0</f>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="30.0" r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -811,7 +805,7 @@
       <c r="E2" s="29"/>
       <c r="F2" s="30"/>
     </row>
-    <row r="3" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="true" ht="20.1" r="3" s="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
@@ -832,7 +826,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="true" ht="20.1" r="4" s="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>29</v>
       </c>
@@ -848,11 +842,11 @@
       <c r="E4" s="23" t="n">
         <v>0.25</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="23">
         <f>D4*(1+E4)</f>
       </c>
     </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" customHeight="true" ht="20.1" r="5" s="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -861,9 +855,9 @@
       <c r="F5" s="14"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row customHeight="true" ht="30.0" r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
@@ -871,7 +865,7 @@
       <c r="E6" s="29"/>
       <c r="F6" s="30"/>
     </row>
-    <row r="7" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="true" ht="20.1" r="7" s="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>5</v>
       </c>
@@ -893,9 +887,9 @@
       <c r="G7"/>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:9" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="true" ht="20.1" r="8" s="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B8" s="13" t="n">
         <v>30.0</v>
@@ -909,15 +903,15 @@
       <c r="E8" s="23" t="n">
         <v>0.25</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="23">
         <f>D8*(1+E8)</f>
       </c>
       <c r="G8"/>
       <c r="H8"/>
     </row>
-    <row r="9" ht="20.1" customHeight="true">
+    <row customFormat="1" customHeight="true" ht="20.1" r="9" s="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B9" s="13" t="n">
         <v>31.0</v>
@@ -931,15 +925,15 @@
       <c r="E9" s="23" t="n">
         <v>0.24</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="23">
         <f>D9*(1+E9)</f>
       </c>
-      <c r="G9" s="0"/>
-      <c r="H9" s="0"/>
-    </row>
-    <row r="10" ht="20.1" customHeight="true">
+      <c r="G9"/>
+      <c r="H9"/>
+    </row>
+    <row customHeight="true" ht="20.1" r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B10" s="13" t="n">
         <v>32.0</v>
@@ -953,15 +947,13 @@
       <c r="E10" s="23" t="n">
         <v>0.23</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="23">
         <f>D10*(1+E10)</f>
       </c>
-      <c r="G10" s="0"/>
-      <c r="H10" s="0"/>
-    </row>
-    <row r="11" ht="20.1" customHeight="true">
+    </row>
+    <row customFormat="1" customHeight="true" ht="20.1" r="11" s="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B11" s="13" t="n">
         <v>33.0</v>
@@ -975,161 +967,146 @@
       <c r="E11" s="23" t="n">
         <v>0.22</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="23">
         <f>D11*(1+E11)</f>
       </c>
-      <c r="G11" s="0"/>
-      <c r="H11" s="0"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" ht="20.1" customHeight="true">
-      <c r="A12" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="13" t="n">
+      <c r="A12" t="s" s="13">
+        <v>35</v>
+      </c>
+      <c r="B12" t="n" s="13">
         <v>34.0</v>
       </c>
-      <c r="C12" s="27" t="n">
+      <c r="C12" t="n" s="27">
         <v>28856.0</v>
       </c>
-      <c r="D12" s="23" t="n">
+      <c r="D12" t="n" s="23">
         <v>24000.0</v>
       </c>
-      <c r="E12" s="23" t="n">
+      <c r="E12" t="n" s="23">
         <v>0.21</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="23">
         <f>D12*(1+E12)</f>
       </c>
-      <c r="G12" s="0"/>
-      <c r="H12" s="0"/>
     </row>
     <row r="13" ht="20.1" customHeight="true">
-      <c r="A13" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="13" t="n">
+      <c r="A13" t="s" s="13">
+        <v>36</v>
+      </c>
+      <c r="B13" t="n" s="13">
         <v>35.0</v>
       </c>
-      <c r="C13" s="27" t="n">
+      <c r="C13" t="n" s="27">
         <v>28491.0</v>
       </c>
-      <c r="D13" s="23" t="n">
+      <c r="D13" t="n" s="23">
         <v>25000.0</v>
       </c>
-      <c r="E13" s="23" t="n">
+      <c r="E13" t="n" s="23">
         <v>0.2</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="23">
         <f>D13*(1+E13)</f>
       </c>
-      <c r="G13" s="0"/>
-      <c r="H13" s="0"/>
     </row>
     <row r="14" ht="20.1" customHeight="true">
-      <c r="A14" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="13" t="n">
+      <c r="A14" t="s" s="13">
+        <v>37</v>
+      </c>
+      <c r="B14" t="n" s="13">
         <v>36.0</v>
       </c>
-      <c r="C14" s="27" t="n">
+      <c r="C14" t="n" s="27">
         <v>28126.0</v>
       </c>
-      <c r="D14" s="23" t="n">
+      <c r="D14" t="n" s="23">
         <v>26000.0</v>
       </c>
-      <c r="E14" s="23" t="n">
+      <c r="E14" t="n" s="23">
         <v>0.19</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="23">
         <f>D14*(1+E14)</f>
       </c>
-      <c r="G14" s="0"/>
-      <c r="H14" s="0"/>
     </row>
     <row r="15" ht="20.1" customHeight="true">
-      <c r="A15" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="13" t="n">
+      <c r="A15" t="s" s="13">
+        <v>38</v>
+      </c>
+      <c r="B15" t="n" s="13">
         <v>37.0</v>
       </c>
-      <c r="C15" s="27" t="n">
+      <c r="C15" t="n" s="27">
         <v>27760.0</v>
       </c>
-      <c r="D15" s="23" t="n">
+      <c r="D15" t="n" s="23">
         <v>27000.0</v>
       </c>
-      <c r="E15" s="23" t="n">
+      <c r="E15" t="n" s="23">
         <v>0.18</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="23">
         <f>D15*(1+E15)</f>
       </c>
-      <c r="G15" s="0"/>
-      <c r="H15" s="0"/>
     </row>
     <row r="16" ht="20.1" customHeight="true">
-      <c r="A16" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="13" t="n">
+      <c r="A16" t="s" s="13">
+        <v>39</v>
+      </c>
+      <c r="B16" t="n" s="13">
         <v>38.0</v>
       </c>
-      <c r="C16" s="27" t="n">
+      <c r="C16" t="n" s="27">
         <v>27395.0</v>
       </c>
-      <c r="D16" s="23" t="n">
+      <c r="D16" t="n" s="23">
         <v>28000.0</v>
       </c>
-      <c r="E16" s="23" t="n">
+      <c r="E16" t="n" s="23">
         <v>0.16999999999999998</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="23">
         <f>D16*(1+E16)</f>
       </c>
-      <c r="G16" s="0"/>
-      <c r="H16" s="0"/>
     </row>
     <row r="17" ht="20.1" customHeight="true">
-      <c r="A17" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="13" t="n">
+      <c r="A17" t="s" s="13">
+        <v>40</v>
+      </c>
+      <c r="B17" t="n" s="13">
         <v>39.0</v>
       </c>
-      <c r="C17" s="27" t="n">
+      <c r="C17" t="n" s="27">
         <v>27030.0</v>
       </c>
-      <c r="D17" s="23" t="n">
+      <c r="D17" t="n" s="23">
         <v>29000.0</v>
       </c>
-      <c r="E17" s="23" t="n">
+      <c r="E17" t="n" s="23">
         <v>0.16</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="23">
         <f>D17*(1+E17)</f>
       </c>
-      <c r="G17" s="0"/>
-      <c r="H17" s="0"/>
-    </row>
-    <row r="18" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2" ht="30.0" customHeight="true">
-      <c r="A18" s="18" t="s">
+    </row>
+    <row r="18" ht="30.0" customHeight="true">
+      <c r="A18" t="s" s="18">
         <v>13</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="24">
         <f>SUM(D8:D17)</f>
       </c>
       <c r="E18" s="20"/>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="25">
         <f>SUM(F8:F17)</f>
       </c>
-      <c r="G18"/>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35" ht="20.1" customHeight="true">
+    </row>
+    <row r="19" ht="20.1" customHeight="true">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -1137,28 +1114,28 @@
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2" ht="30.0" customHeight="true">
-      <c r="A20" s="21" t="s">
+    <row r="20" ht="30.0" customHeight="true">
+      <c r="A20" t="s" s="21">
         <v>12</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="26">
         <f>F4+F18</f>
       </c>
-      <c r="G20" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:F1"/>
+  <mergeCells>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A6:F6"/>
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup horizontalDpi="300" orientation="landscape" paperSize="9" r:id="rId1" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>